--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_16-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_16-54.xlsx
@@ -50,6 +50,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -68,7 +77,10 @@
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>CAPIXY LASH SERUM</t>
@@ -77,15 +89,15 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -261,9 +282,6 @@
   </si>
   <si>
     <t>قصافات كبار لوكس</t>
-  </si>
-  <si>
-    <t>9:0</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -935,7 +953,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -961,11 +979,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -973,7 +991,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -981,13 +999,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -999,7 +1017,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1013,11 +1031,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>522.5</v>
+        <v>76</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1025,7 +1043,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1033,17 +1051,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1051,7 +1069,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1059,17 +1077,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>12</v>
+        <v>522.5</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1085,17 +1103,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1111,13 +1129,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1129,7 +1147,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1137,17 +1155,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1163,17 +1181,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1181,7 +1199,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1189,17 +1207,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1207,7 +1225,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1215,17 +1233,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1233,7 +1251,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1241,17 +1259,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1267,17 +1285,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1293,17 +1311,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1311,7 +1329,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1319,17 +1337,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1345,13 +1363,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1363,7 +1381,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1371,17 +1389,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1389,7 +1407,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1397,17 +1415,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>15.300000000000001</v>
+        <v>37</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1423,17 +1441,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>85.560000000000002</v>
+        <v>15</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1441,7 +1459,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1449,17 +1467,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1467,7 +1485,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1475,17 +1493,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1493,7 +1511,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1501,13 +1519,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1527,13 +1545,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>27.329999999999998</v>
+        <v>39</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1553,13 +1571,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1585,11 +1603,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>277.5</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1605,17 +1623,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1631,17 +1649,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1649,7 +1667,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1657,17 +1675,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>277.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1689,11 +1707,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1715,11 +1733,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1735,17 +1753,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1761,17 +1779,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1787,17 +1805,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1805,7 +1823,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1813,13 +1831,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>56.399999999999999</v>
+        <v>61</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1839,17 +1857,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1865,17 +1883,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>65.75</v>
+        <v>75</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1891,17 +1909,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>59</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1909,7 +1927,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1917,17 +1935,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1935,7 +1953,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1949,7 +1967,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1961,7 +1979,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1969,17 +1987,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1987,7 +2005,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1995,17 +2013,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25</v>
+        <v>65.75</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2013,7 +2031,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2021,17 +2039,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2039,7 +2057,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2047,17 +2065,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>2.5</v>
+        <v>80</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2065,7 +2083,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2073,17 +2091,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2091,7 +2109,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2099,13 +2117,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2117,7 +2135,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2125,7 +2143,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2135,7 +2153,7 @@
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2143,7 +2161,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2151,17 +2169,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2169,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2177,17 +2195,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>18</v>
+        <v>2.5</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2195,7 +2213,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2203,17 +2221,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2221,7 +2239,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2229,17 +2247,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2247,7 +2265,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2255,17 +2273,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2273,7 +2291,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2281,17 +2299,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2299,7 +2317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2307,17 +2325,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>19.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2325,7 +2343,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2333,17 +2351,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2351,7 +2369,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2359,51 +2377,181 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="K62" s="10">
-        <v>3482.54</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
+        <v>91</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
         <v>92</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c t="s" r="F63" s="12">
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>20</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
         <v>93</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c t="s" r="I63" s="14">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
+        <v>15</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>35</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
         <v>94</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>95</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>19.199999999999999</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
+        <v>96</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>15</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>42</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>30</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="26.25" customHeight="1">
+      <c r="K67" s="10">
+        <v>3646.54</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="11">
+        <v>98</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c t="s" r="F68" s="12">
+        <v>99</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+      <c t="s" r="I68" s="14">
+        <v>100</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="200">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2585,10 +2733,25 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:N68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
